--- a/kitaplar.xlsx
+++ b/kitaplar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,14 +523,18 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>2024-07-03 03:18:35</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-07-07 04:03:22</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -589,6 +593,156 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Klasikler 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Anonim 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>234235344</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>66</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Klasikler 2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Anonim 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>234235345</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>67</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Klasikler 3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Anonim 3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>234235346</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>68</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Klasikler 4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Anonim 4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>234235347</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>69</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Klasikler 5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Anonim 5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>234235348</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>70</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Klasikler 6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Anonim 6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>234235349</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>71</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kitaplar.xlsx
+++ b/kitaplar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,35 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Daha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hakan Günday</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23423423545</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>23</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-08-04 01:01:48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/kitaplar.xlsx
+++ b/kitaplar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,132 +646,61 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Klasikler 3</t>
+          <t>Daha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anonim 3</t>
+          <t>Hakan Günday</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>234235346</t>
+          <t>23423423545</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-08-04 01:01:48</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Klasikler 4</t>
+          <t>Kör Baykuş</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Anonim 4</t>
+          <t>Sadık Hidayet</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>234235347</t>
+          <t>978121212</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>69</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-08-07 01:29:21</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Klasikler 5</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Anonim 5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>234235348</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>70</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Klasikler 6</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Anonim 6</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>234235349</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>71</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Daha</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Hakan Günday</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>23423423545</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>23</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2024-08-04 01:01:48</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kitaplar.xlsx
+++ b/kitaplar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,6 +702,31 @@
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>London PubsD Publish</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Anonim 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>97822344</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
